--- a/Scrum.xlsx
+++ b/Scrum.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Troel\Dropbox\Kandidat\Wireless\Wireless-Sensor-Networks\Wireless-Sensor-Networks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cml\Desktop\Wireless-Sensor-Networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -98,9 +98,6 @@
     <t>TKT</t>
   </si>
   <si>
-    <t>KR</t>
-  </si>
-  <si>
     <t>DA</t>
   </si>
   <si>
@@ -111,12 +108,15 @@
   </si>
   <si>
     <t>DOCUMENTATION SCRUM BOARD</t>
+  </si>
+  <si>
+    <t>CH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -575,7 +575,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,7 +589,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -615,7 +615,7 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
@@ -706,7 +706,7 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -719,7 +719,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -732,7 +732,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -745,7 +745,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -758,7 +758,7 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -779,8 +779,8 @@
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5" t="s">
-        <v>24</v>
+      <c r="E16" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -793,7 +793,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -828,7 +828,7 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">

--- a/Scrum.xlsx
+++ b/Scrum.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cml\Desktop\Wireless-Sensor-Networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA171CCE-3C76-4B4E-9CAD-A3AB7D86E8ED}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -116,7 +117,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -571,11 +572,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Scrum.xlsx
+++ b/Scrum.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cml\Desktop\Wireless-Sensor-Networks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Troel\Dropbox\Kandidat\Wireless\Wireless-Sensor-Networks\Wireless-Sensor-Networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA171CCE-3C76-4B4E-9CAD-A3AB7D86E8ED}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,7 +116,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -572,11 +571,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,10 +639,10 @@
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
         <v>23</v>
@@ -653,10 +652,10 @@
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
         <v>23</v>
@@ -666,10 +665,10 @@
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
         <v>23</v>
@@ -679,10 +678,10 @@
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
         <v>23</v>
